--- a/myproject/docs/Gantt_18700_19035.xlsx
+++ b/myproject/docs/Gantt_18700_19035.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB26D38A-A4B8-4020-B9FC-FB324535B90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1906BB59-835C-4605-BECA-3832A7F7153D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="3240" windowWidth="21600" windowHeight="11295" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="18" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Project start date:</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Tiago Sousa - 18700 | Tiago Rodrigues - 19035</t>
+  </si>
+  <si>
+    <t>Tiago Sousa / Tiago Rodrigues</t>
   </si>
 </sst>
 </file>
@@ -1456,24 +1459,24 @@
   </sheetPr>
   <dimension ref="A1:BK42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AC30" sqref="AC30"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="63" width="3.5546875" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="63" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:63" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:63" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
       <c r="B2" s="59" t="s">
         <v>9</v>
@@ -1540,7 +1543,7 @@
       <c r="BJ2" s="29"/>
       <c r="BK2" s="29"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="48" t="s">
         <v>10</v>
@@ -1607,7 +1610,7 @@
       <c r="BJ3" s="1"/>
       <c r="BK3" s="1"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="48" t="s">
         <v>43</v>
       </c>
@@ -1619,7 +1622,7 @@
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
     </row>
-    <row r="5" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="39" t="s">
         <v>0</v>
@@ -1648,7 +1651,7 @@
       </c>
       <c r="V5" s="43"/>
     </row>
-    <row r="6" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="41" t="s">
         <v>2</v>
@@ -1741,7 +1744,7 @@
       <c r="BJ6" s="22"/>
       <c r="BK6" s="22"/>
     </row>
-    <row r="7" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="20"/>
       <c r="H7" s="56">
@@ -1969,7 +1972,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:63" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="60" t="s">
         <v>3</v>
@@ -2212,7 +2215,7 @@
         <v>s</v>
       </c>
     </row>
-    <row r="9" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
@@ -2275,7 +2278,7 @@
       <c r="BJ9" s="21"/>
       <c r="BK9" s="21"/>
     </row>
-    <row r="10" spans="1:63" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:63" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="30" t="s">
         <v>11</v>
@@ -2510,7 +2513,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="36" t="s">
         <v>12</v>
@@ -2753,13 +2756,13 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="36" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D12" s="52">
         <v>1</v>
@@ -2996,7 +2999,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="1" customFormat="1" ht="63.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:63" s="1" customFormat="1" ht="63.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="36" t="s">
         <v>14</v>
@@ -3239,7 +3242,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="1" customFormat="1" ht="63" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:63" s="1" customFormat="1" ht="63" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="36" t="s">
         <v>15</v>
@@ -3482,14 +3485,12 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="52">
         <v>1</v>
       </c>
@@ -3725,7 +3726,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:63" s="1" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:63" s="1" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="30" t="s">
         <v>19</v>
@@ -3960,7 +3961,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="1" customFormat="1" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:63" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="36" t="s">
         <v>21</v>
@@ -4203,7 +4204,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="36" t="s">
         <v>20</v>
@@ -4446,13 +4447,13 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D19" s="52">
         <v>1</v>
@@ -4689,7 +4690,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:63" s="1" customFormat="1" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:63" s="1" customFormat="1" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="36" t="s">
         <v>23</v>
@@ -4932,7 +4933,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:63" s="1" customFormat="1" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:63" s="1" customFormat="1" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="36" t="s">
         <v>24</v>
@@ -5175,13 +5176,15 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="14"/>
-      <c r="D22" s="52"/>
+      <c r="D22" s="52">
+        <v>1</v>
+      </c>
       <c r="E22" s="31">
         <v>45541</v>
       </c>
@@ -5414,7 +5417,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="30" t="s">
         <v>26</v>
@@ -5649,13 +5652,13 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D24" s="52">
         <v>1</v>
@@ -5892,7 +5895,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="36" t="s">
         <v>28</v>
@@ -6135,13 +6138,15 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="36" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="52"/>
+      <c r="D26" s="52">
+        <v>1</v>
+      </c>
       <c r="E26" s="31">
         <v>45541</v>
       </c>
@@ -6374,7 +6379,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="30" t="s">
         <v>30</v>
@@ -6609,13 +6614,13 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="36" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="52">
         <v>1</v>
@@ -6850,7 +6855,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="36" t="s">
         <v>32</v>
@@ -7087,13 +7092,15 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="36" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="52"/>
+      <c r="D30" s="52">
+        <v>1</v>
+      </c>
       <c r="E30" s="31">
         <v>45541</v>
       </c>
@@ -7326,7 +7333,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="30" t="s">
         <v>34</v>
@@ -7561,7 +7568,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="36" t="s">
         <v>35</v>
@@ -7804,13 +7811,13 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="36" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="52">
         <v>1</v>
@@ -8047,244 +8054,250 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="52"/>
+      <c r="C34" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="52">
+        <v>1</v>
+      </c>
       <c r="E34" s="31">
         <v>45534</v>
       </c>
-      <c r="F34" s="13"/>
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
       <c r="G34" s="25"/>
       <c r="H34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(H$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(H$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="I34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(I$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(I$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="J34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(J$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(J$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="K34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(K$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(K$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="L34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(L$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(L$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="M34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(M$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(M$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="N34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(N$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(N$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="O34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(O$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(O$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="P34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(P$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(P$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Q34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(R$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R34" s="24">
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(R$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="S34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(S$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(S$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="T34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(T$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(T$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="U34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(U$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(U$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="V34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(V$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(V$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="W34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(W$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(W$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="X34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(X$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(X$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Y34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Z34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AA34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AB34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AC34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AD34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AE34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AF34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AG34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AH34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AI34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AJ34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AK34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AL34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AM34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AN34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AO34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AP34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AQ34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AR34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AS34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AT34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AU34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AV34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AW34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AX34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AY34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AZ34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BA34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BB34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BC34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BD34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BE34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BF34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BG34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BH34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BI34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BJ34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BK34" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="36" t="s">
         <v>38</v>
@@ -8527,13 +8540,13 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:63" s="1" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:63" s="1" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="36" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" s="52">
         <v>1</v>
@@ -8770,7 +8783,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:63" s="1" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:63" s="1" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="36" t="s">
         <v>40</v>
@@ -8782,236 +8795,238 @@
         <v>1</v>
       </c>
       <c r="E37" s="31">
-        <v>45534</v>
-      </c>
-      <c r="F37" s="13"/>
+        <v>45524</v>
+      </c>
+      <c r="F37" s="13">
+        <v>19</v>
+      </c>
       <c r="G37" s="25"/>
       <c r="H37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(H$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(H$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="I37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(I$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(I$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="J37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(J$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(J$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="K37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(K$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(K$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="L37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(L$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(L$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="M37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(M$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(M$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="N37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(N$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(N$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="O37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(O$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(O$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="P37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(P$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(P$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Q37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="R37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(R$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(R$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="S37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(S$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(S$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="T37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(T$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(T$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="U37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(U$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(U$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="V37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(V$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(V$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="W37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(W$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(W$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="X37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(X$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(X$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Y37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Z37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AA37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AB37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AC37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AD37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AE37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AF37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AG37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AH37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AI37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AJ37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AK37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AL37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AM37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AN37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AO37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AP37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AQ37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AR37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AS37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AT37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AU37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AV37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AW37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AX37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AY37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AZ37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BA37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BB37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BC37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BD37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BE37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BF37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BG37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BH37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BI37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BJ37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BK37" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E37,$F37=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:63" s="1" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:63" s="1" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="36" t="s">
         <v>41</v>
@@ -9025,241 +9040,241 @@
       <c r="E38" s="31">
         <v>45534</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="63">
+        <v>1</v>
+      </c>
       <c r="G38" s="25"/>
       <c r="H38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(H$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(H$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="I38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(I$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(I$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="J38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(J$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(J$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="K38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(K$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(K$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="L38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(L$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(L$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="M38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(M$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(M$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="N38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(N$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(N$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="O38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(O$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(O$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="P38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(P$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(P$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Q38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(R$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
-        <v/>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R38" s="24">
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(R$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="S38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(S$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(S$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="T38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(T$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(T$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="U38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(U$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(U$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="V38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(V$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(V$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="W38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(W$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(W$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="X38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(X$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(X$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Y38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Z38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AA38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AB38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AC38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AD38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AE38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AF38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AG38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AH38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AI38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AJ38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AK38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AL38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AM38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AN38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AO38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AP38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AQ38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AR38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AS38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AT38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AU38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AV38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AW38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AX38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AY38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AZ38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BA38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BB38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BC38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BD38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BE38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BF38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BG38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BH38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BI38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BJ38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BK38" s="24" t="str">
-        <f>IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Milestones34[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E38,$F38=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:63" s="1" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:63" s="1" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="C39" s="14"/>
       <c r="D39" s="52">
         <v>1</v>
       </c>
@@ -9495,7 +9510,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="9" t="s">
         <v>8</v>
@@ -9562,12 +9577,12 @@
       <c r="BJ40" s="15"/>
       <c r="BK40" s="15"/>
     </row>
-    <row r="41" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
       <c r="F41" s="8"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="5"/>
     </row>
   </sheetData>
